--- a/src/main/resources/AddAddressData.xlsx
+++ b/src/main/resources/AddAddressData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CE7B50-3204-42E6-973F-CC94347A16E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955622A2-E706-4DDD-807C-008A01489120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -80,19 +80,12 @@
   </si>
   <si>
     <t>Egypt</t>
-  </si>
-  <si>
-    <t>mochxd1432024092226@test.com</t>
-  </si>
-  <si>
-    <t>P@ssword.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,16 +408,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="36.69921875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.296875"/>
-    <col min="3" max="4" style="1" width="8.796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="18.296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="12.5"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.19921875"/>
-    <col min="8" max="11" style="1" width="8.796875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="12.296875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="9.69921875"/>
-    <col min="14" max="16384" style="1" width="8.796875"/>
+    <col min="1" max="1" width="36.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.796875" style="1"/>
+    <col min="5" max="5" width="18.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.796875" style="1"/>
+    <col min="12" max="12" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -469,12 +462,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>

--- a/src/main/resources/AddAddressData.xlsx
+++ b/src/main/resources/AddAddressData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955622A2-E706-4DDD-807C-008A01489120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB87C93E-577D-496B-BA41-2B5894B37714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
